--- a/Symphony/Others/Cash A.xlsx
+++ b/Symphony/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Currency Value</t>
   </si>
@@ -42,18 +42,12 @@
     <t xml:space="preserve">     Grand Total =</t>
   </si>
   <si>
-    <t>Rahinul Kabir</t>
-  </si>
-  <si>
     <t>Amount In Words :</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Jafor Iqbal</t>
-  </si>
-  <si>
     <t>Cash RECEIVED BY</t>
   </si>
   <si>
@@ -69,13 +63,25 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Ten Lac Taka Only.</t>
-  </si>
-  <si>
-    <t>Finace Officer at bKash Natore Office</t>
-  </si>
-  <si>
-    <t>Manager at Mugdho Corporation</t>
+    <t>Manager at Cell Daffodils</t>
+  </si>
+  <si>
+    <t>Sumon</t>
+  </si>
+  <si>
+    <t>Aliul Kabir</t>
+  </si>
+  <si>
+    <t>Manager at Hello Daffodils</t>
+  </si>
+  <si>
+    <t>Two Lac Sixty Five Thousand One Hundred Seventy Five Only</t>
+  </si>
+  <si>
+    <t>Hello Daffodils</t>
+  </si>
+  <si>
+    <t>Cash Paid by Aliul Kabir, Order as per Abdul Mannan Tipu</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,21 +483,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -503,38 +534,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,14 +581,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>395445</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>185895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -608,14 +630,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2038350</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>2409825</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -631,7 +653,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3705225" y="4933952"/>
+          <a:off x="4648200" y="5343527"/>
           <a:ext cx="1724025" cy="9523"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -658,14 +680,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>2085975</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -681,7 +703,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="4933952"/>
+          <a:off x="361950" y="5343527"/>
           <a:ext cx="1724025" cy="9523"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -709,13 +731,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -759,13 +781,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2028825</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -809,13 +831,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1121,55 +1143,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="A1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()</f>
-        <v>44485</v>
+        <v>44531</v>
       </c>
       <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>1</v>
@@ -1180,11 +1202,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:C11" si="0">SUM(A6*B6)</f>
-        <v>153000</v>
+        <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
+        <v>53000</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1192,11 +1214,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>137000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,11 +1226,11 @@
         <v>100</v>
       </c>
       <c r="B8" s="4">
-        <v>565</v>
+        <v>400</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>56500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,14 +1238,14 @@
         <v>50</v>
       </c>
       <c r="B9" s="4">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>2150</v>
+        <v>5750</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1231,11 +1253,11 @@
         <v>20</v>
       </c>
       <c r="B10" s="4">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1243,299 +1265,320 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="11">
-        <f>SUM(C6:C11)</f>
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="11">
+        <f>SUM(C6:C12)</f>
+        <v>265175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="52"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="46"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="46"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="46"/>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="38"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="39"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="39"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="39"/>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="47" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+    <row r="24" spans="1:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6">
+        <f ca="1">B2</f>
+        <v>44531</v>
+      </c>
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6">
-        <f ca="1">B2</f>
-        <v>44485</v>
-      </c>
-      <c r="C25" s="28"/>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-    </row>
-    <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-    </row>
-    <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+    </row>
+    <row r="28" spans="1:3" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+    </row>
+    <row r="29" spans="1:3" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+    <row r="30" spans="1:3" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
         <v>1000</v>
       </c>
-      <c r="B29" s="4">
-        <v>153</v>
-      </c>
-      <c r="C29" s="21">
-        <f t="shared" ref="C29:C34" si="1">SUM(A29*B29)</f>
-        <v>153000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="B30" s="4">
+        <v>53</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" ref="C30:C36" si="1">SUM(A30*B30)</f>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
         <v>500</v>
       </c>
-      <c r="B30" s="4">
-        <v>274</v>
-      </c>
-      <c r="C30" s="21">
-        <f t="shared" si="1"/>
-        <v>137000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>100</v>
-      </c>
       <c r="B31" s="4">
-        <v>565</v>
+        <v>330</v>
       </c>
       <c r="C31" s="21">
         <f t="shared" si="1"/>
-        <v>56500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>43</v>
+        <v>400</v>
       </c>
       <c r="C32" s="21">
         <f t="shared" si="1"/>
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4">
+        <v>115</v>
+      </c>
+      <c r="C33" s="21">
+        <f t="shared" si="1"/>
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
         <v>20</v>
       </c>
-      <c r="B33" s="4">
-        <v>21</v>
-      </c>
-      <c r="C33" s="21">
-        <f>SUM(A33*B33)</f>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="B34" s="4">
+        <v>64</v>
+      </c>
+      <c r="C34" s="21">
+        <f>SUM(A34*B34)</f>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
         <v>10</v>
       </c>
-      <c r="B34" s="4">
-        <v>93</v>
-      </c>
-      <c r="C34" s="21">
+      <c r="B35" s="4">
+        <v>14</v>
+      </c>
+      <c r="C35" s="21">
         <f t="shared" si="1"/>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="49">
+        <v>5</v>
+      </c>
+      <c r="B36" s="50">
+        <v>1</v>
+      </c>
+      <c r="C36" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="20.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="22">
-        <f>SUM(C29:C34)</f>
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="str">
-        <f>A13</f>
+      <c r="B37" s="43"/>
+      <c r="C37" s="22">
+        <f>SUM(C30:C36)</f>
+        <v>265175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="str">
+        <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B36" s="37" t="str">
-        <f>B13</f>
-        <v>Ten Lac Taka Only.</v>
-      </c>
-      <c r="C36" s="38"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="B38" s="44" t="str">
+        <f>B14</f>
+        <v>Two Lac Sixty Five Thousand One Hundred Seventy Five Only</v>
+      </c>
+      <c r="C38" s="45"/>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="39"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="39"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="39"/>
-      <c r="L41" s="1" t="s">
+      <c r="C40" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="46"/>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="46"/>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="46"/>
+      <c r="L43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25" t="str">
-        <f>C19</f>
-        <v>Jafor Iqbal</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="str">
-        <f>A20</f>
-        <v>Manager at Mugdho Corporation</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="33" t="str">
-        <f>C20</f>
-        <v>Finace Officer at bKash Natore Office</v>
+    <row r="45" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="47" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1" right="0" top="0.25" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0" header="0" footer="0"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Symphony/Others/Cash A.xlsx
+++ b/Symphony/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Currency Value</t>
   </si>
@@ -63,25 +63,22 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Manager at Cell Daffodils</t>
-  </si>
-  <si>
-    <t>Sumon</t>
-  </si>
-  <si>
-    <t>Aliul Kabir</t>
-  </si>
-  <si>
-    <t>Manager at Hello Daffodils</t>
-  </si>
-  <si>
-    <t>Two Lac Sixty Five Thousand One Hundred Seventy Five Only</t>
-  </si>
-  <si>
-    <t>Hello Daffodils</t>
-  </si>
-  <si>
-    <t>Cash Paid by Aliul Kabir, Order as per Abdul Mannan Tipu</t>
+    <t>Cash Handover by Kabir to bKash Jafor, Order as per Abdul Mannan Tipu</t>
+  </si>
+  <si>
+    <t>Seven Lac Taka Only.</t>
+  </si>
+  <si>
+    <t>Jafor Iqbal</t>
+  </si>
+  <si>
+    <t>Rahinul Kabir</t>
+  </si>
+  <si>
+    <t>Manager at Mugdho Corporation</t>
+  </si>
+  <si>
+    <t>Finance Manager at bKash(Natore)</t>
   </si>
 </sst>
 </file>
@@ -91,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,20 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -187,6 +170,29 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -400,26 +406,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,46 +464,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,52 +480,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -531,32 +507,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,14 +590,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>185895</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -631,13 +640,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2409825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -681,13 +690,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2085975</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -731,13 +740,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -781,13 +790,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2028825</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -831,13 +840,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1143,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,428 +1166,408 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="48">
         <f ca="1">TODAY()</f>
-        <v>44531</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>44532</v>
+      </c>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>53</v>
-      </c>
-      <c r="C6" s="10">
-        <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>53000</v>
+        <v>223</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" ref="C6:C11" si="0">SUM(A6*B6)</f>
+        <v>223000</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>330</v>
-      </c>
-      <c r="C7" s="10">
+        <v>744</v>
+      </c>
+      <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>165000</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>100</v>
       </c>
       <c r="B8" s="4">
-        <v>400</v>
-      </c>
-      <c r="C8" s="10">
+        <v>881</v>
+      </c>
+      <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>88100</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>50</v>
       </c>
       <c r="B9" s="4">
-        <v>115</v>
-      </c>
-      <c r="C9" s="10">
+        <v>72</v>
+      </c>
+      <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>5750</v>
+        <v>3600</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>20</v>
       </c>
       <c r="B10" s="4">
-        <v>64</v>
-      </c>
-      <c r="C10" s="10">
+        <v>279</v>
+      </c>
+      <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10">
+        <v>772</v>
+      </c>
+      <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="10">
+        <f>SUM(C6:C11)</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="11">
-        <f>SUM(C6:C12)</f>
-        <v>265175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="52"/>
+      <c r="B13" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="46"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="33"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="46"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="46"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="46"/>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="36"/>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="47" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B25" s="48">
         <f ca="1">B2</f>
-        <v>44531</v>
-      </c>
-      <c r="C26" s="28"/>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+        <v>44532</v>
+      </c>
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-    </row>
-    <row r="28" spans="1:3" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-    </row>
-    <row r="29" spans="1:3" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+    </row>
+    <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+    </row>
+    <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+    <row r="29" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
         <v>1000</v>
       </c>
+      <c r="B29" s="4">
+        <v>223</v>
+      </c>
+      <c r="C29" s="20">
+        <f t="shared" ref="C29:C34" si="1">SUM(A29*B29)</f>
+        <v>223000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>500</v>
+      </c>
       <c r="B30" s="4">
-        <v>53</v>
-      </c>
-      <c r="C30" s="21">
-        <f t="shared" ref="C30:C36" si="1">SUM(A30*B30)</f>
-        <v>53000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>500</v>
+        <v>744</v>
+      </c>
+      <c r="C30" s="20">
+        <f t="shared" si="1"/>
+        <v>372000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>100</v>
       </c>
       <c r="B31" s="4">
-        <v>330</v>
-      </c>
-      <c r="C31" s="21">
+        <v>881</v>
+      </c>
+      <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>100</v>
+        <v>88100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>50</v>
       </c>
       <c r="B32" s="4">
-        <v>400</v>
-      </c>
-      <c r="C32" s="21">
+        <v>72</v>
+      </c>
+      <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>50</v>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>20</v>
       </c>
       <c r="B33" s="4">
-        <v>115</v>
-      </c>
-      <c r="C33" s="21">
+        <v>279</v>
+      </c>
+      <c r="C33" s="20">
+        <f>SUM(A33*B33)</f>
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>10</v>
+      </c>
+      <c r="B34" s="4">
+        <v>772</v>
+      </c>
+      <c r="C34" s="20">
         <f t="shared" si="1"/>
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
-        <v>20</v>
-      </c>
-      <c r="B34" s="4">
-        <v>64</v>
-      </c>
-      <c r="C34" s="21">
-        <f>SUM(A34*B34)</f>
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>10</v>
-      </c>
-      <c r="B35" s="4">
-        <v>14</v>
-      </c>
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="32"/>
       <c r="C35" s="21">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49">
-        <v>5</v>
-      </c>
-      <c r="B36" s="50">
-        <v>1</v>
-      </c>
-      <c r="C36" s="21">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="20.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="22">
-        <f>SUM(C30:C36)</f>
-        <v>265175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="str">
-        <f>A14</f>
+        <f>SUM(C29:C34)</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="str">
+        <f>A13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B38" s="44" t="str">
-        <f>B14</f>
-        <v>Two Lac Sixty Five Thousand One Hundred Seventy Five Only</v>
-      </c>
-      <c r="C38" s="45"/>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="B36" s="34" t="str">
+        <f>B13</f>
+        <v>Seven Lac Taka Only.</v>
+      </c>
+      <c r="C36" s="35"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="17" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="36"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="36"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="46"/>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="46"/>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="46"/>
-      <c r="L43" s="1" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="36"/>
+      <c r="L41" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="47" t="s">
-        <v>12</v>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="str">
+        <f>A19</f>
+        <v>Rahinul Kabir</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24" t="str">
+        <f>C19</f>
+        <v>Jafor Iqbal</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="str">
+        <f>A20</f>
+        <v>Manager at Mugdho Corporation</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="27" t="str">
+        <f>C20</f>
+        <v>Finance Manager at bKash(Natore)</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.75" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Symphony/Others/Cash A.xlsx
+++ b/Symphony/Others/Cash A.xlsx
@@ -492,13 +492,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -507,64 +558,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,33 +1167,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44532</v>
-      </c>
-      <c r="C2" s="49"/>
+        <v>44539</v>
+      </c>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1211,11 +1211,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C11" si="0">SUM(A6*B6)</f>
-        <v>223000</v>
+        <v>214000</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,11 +1223,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>372000</v>
+        <v>420500</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1235,11 +1235,11 @@
         <v>100</v>
       </c>
       <c r="B8" s="4">
-        <v>881</v>
+        <v>584</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>88100</v>
+        <v>58400</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,11 +1247,11 @@
         <v>50</v>
       </c>
       <c r="B9" s="4">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>3600</v>
+        <v>4150</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>11</v>
@@ -1262,11 +1262,11 @@
         <v>20</v>
       </c>
       <c r="B10" s="4">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>5580</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,18 +1274,18 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>772</v>
+        <v>115</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>7720</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="10">
         <f>SUM(C6:C11)</f>
         <v>700000</v>
@@ -1295,10 +1295,10 @@
       <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="54"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
@@ -1315,19 +1315,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="36"/>
+      <c r="C16" s="55"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="36"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="36"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -1363,33 +1363,33 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44532</v>
-      </c>
-      <c r="C25" s="49"/>
+        <v>44539</v>
+      </c>
+      <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1407,11 +1407,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C34" si="1">SUM(A29*B29)</f>
-        <v>223000</v>
+        <v>214000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1419,11 +1419,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>372000</v>
+        <v>420500</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1431,11 +1431,11 @@
         <v>100</v>
       </c>
       <c r="B31" s="4">
-        <v>881</v>
+        <v>584</v>
       </c>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>88100</v>
+        <v>58400</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1443,11 +1443,11 @@
         <v>50</v>
       </c>
       <c r="B32" s="4">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
@@ -1455,11 +1455,11 @@
         <v>20</v>
       </c>
       <c r="B33" s="4">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="C33" s="20">
         <f>SUM(A33*B33)</f>
-        <v>5580</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
@@ -1467,18 +1467,18 @@
         <v>10</v>
       </c>
       <c r="B34" s="4">
-        <v>772</v>
+        <v>115</v>
       </c>
       <c r="C34" s="20">
         <f t="shared" si="1"/>
-        <v>7720</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="21">
         <f>SUM(C29:C34)</f>
         <v>700000</v>
@@ -1489,11 +1489,11 @@
         <f>A13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B36" s="34" t="str">
+      <c r="B36" s="51" t="str">
         <f>B13</f>
         <v>Seven Lac Taka Only.</v>
       </c>
-      <c r="C36" s="35"/>
+      <c r="C36" s="52"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
@@ -1510,19 +1510,19 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="36"/>
+      <c r="C39" s="55"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="36"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="36"/>
+      <c r="C41" s="55"/>
       <c r="L41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1551,12 +1551,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B36:C36"/>
@@ -1565,6 +1559,12 @@
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/Symphony/Others/Cash A.xlsx
+++ b/Symphony/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Currency Value</t>
   </si>
@@ -60,15 +60,9 @@
     <t>Cash Transfer to Natore bKash, Order as per Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Cash Handover by Kabir to bKash Jafor, Order as per Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Seven Lac Taka Only.</t>
-  </si>
-  <si>
     <t>Jafor Iqbal</t>
   </si>
   <si>
@@ -79,6 +73,9 @@
   </si>
   <si>
     <t>Finance Manager at bKash(Natore)</t>
+  </si>
+  <si>
+    <t>Six Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -185,14 +182,14 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -501,26 +498,38 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,34 +546,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +594,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>33495</xdr:rowOff>
+      <xdr:rowOff>62070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -640,13 +637,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2409825</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -690,13 +687,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2085975</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -740,13 +737,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -789,14 +786,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180977</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2028825</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>2486025</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -812,8 +809,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3695700" y="11172827"/>
-          <a:ext cx="1724025" cy="9523"/>
+          <a:off x="4705350" y="10944225"/>
+          <a:ext cx="1743075" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -839,15 +836,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -861,9 +858,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="85725" y="11182352"/>
-          <a:ext cx="1724025" cy="9523"/>
+        <a:xfrm flipV="1">
+          <a:off x="371475" y="10944225"/>
+          <a:ext cx="1781175" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1152,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="G9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,36 +1163,36 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-    </row>
-    <row r="4" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+    </row>
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1206,151 +1203,155 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" ref="C6:C11" si="0">SUM(A6*B6)</f>
-        <v>214000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>841</v>
+        <v>608</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>420500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>304000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B8" s="4">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>58400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>83</v>
+        <v>694</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>4150</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>119</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="10">
-        <f>SUM(C6:C11)</f>
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="10">
+        <f>SUM(C6:C12)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="40"/>
+    </row>
+    <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="41"/>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="54"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="55"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="55"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="55"/>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1362,34 +1363,34 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+    <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-    </row>
-    <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+    </row>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1407,11 +1408,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" s="20">
-        <f t="shared" ref="C29:C34" si="1">SUM(A29*B29)</f>
-        <v>214000</v>
+        <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
+        <v>215000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1419,152 +1420,161 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>841</v>
+        <v>608</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>420500</v>
+        <v>304000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B31" s="4">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>58400</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>83</v>
+        <v>694</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+        <v>69400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4">
+        <v>133</v>
+      </c>
+      <c r="C33" s="20">
+        <f t="shared" si="1"/>
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
         <v>20</v>
       </c>
-      <c r="B33" s="4">
-        <v>90</v>
-      </c>
-      <c r="C33" s="20">
-        <f>SUM(A33*B33)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="B34" s="4">
+        <v>78</v>
+      </c>
+      <c r="C34" s="20">
+        <f>SUM(A34*B34)</f>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B34" s="4">
-        <v>115</v>
-      </c>
-      <c r="C34" s="20">
+      <c r="B35" s="4">
+        <v>119</v>
+      </c>
+      <c r="C35" s="20">
         <f t="shared" si="1"/>
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="21">
-        <f>SUM(C29:C34)</f>
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="str">
-        <f>A13</f>
+      <c r="B36" s="35"/>
+      <c r="C36" s="21">
+        <f>SUM(C29:C35)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="str">
+        <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B36" s="51" t="str">
-        <f>B13</f>
-        <v>Seven Lac Taka Only.</v>
-      </c>
-      <c r="C36" s="52"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="B37" s="37" t="str">
+        <f>B14</f>
+        <v>Six Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="38"/>
+    </row>
+    <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="16" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="55"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="55"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+    <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="41"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="55"/>
-      <c r="L41" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="str">
-        <f>A19</f>
+      <c r="C41" s="41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="41"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="str">
+        <f>A20</f>
         <v>Rahinul Kabir</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24" t="str">
-        <f>C19</f>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24" t="str">
+        <f>C20</f>
         <v>Jafor Iqbal</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="str">
-        <f>A20</f>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="str">
+        <f>A21</f>
         <v>Manager at Mugdho Corporation</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="27" t="str">
-        <f>C20</f>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27" t="str">
+        <f>C21</f>
         <v>Finance Manager at bKash(Natore)</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/Symphony/Others/Cash A.xlsx
+++ b/Symphony/Others/Cash A.xlsx
@@ -498,13 +498,55 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,48 +562,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="G9:H10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,11 +1164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1176,21 +1176,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1208,11 +1208,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>215000</v>
+        <v>319000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,23 +1220,21 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>608</v>
+        <v>418</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>304000</v>
+        <v>209000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>200</v>
       </c>
-      <c r="B8" s="4">
-        <v>11</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,11 +1242,11 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>69400</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,11 +1254,11 @@
         <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>6650</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,30 +1266,28 @@
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>1560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <v>119</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
         <v>600000</v>
@@ -1301,10 +1297,10 @@
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1321,19 +1317,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1364,11 +1360,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1376,21 +1372,21 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1408,11 +1404,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>215000</v>
+        <v>319000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1420,23 +1416,21 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>608</v>
+        <v>418</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>304000</v>
+        <v>209000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>200</v>
       </c>
-      <c r="B31" s="4">
-        <v>11</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1444,11 +1438,11 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>69400</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1456,11 +1450,11 @@
         <v>50</v>
       </c>
       <c r="B33" s="4">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>6650</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1468,30 +1462,28 @@
         <v>20</v>
       </c>
       <c r="B34" s="4">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>1560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B35" s="4">
-        <v>119</v>
-      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="20">
         <f t="shared" si="1"/>
-        <v>1190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
         <v>600000</v>
@@ -1502,11 +1494,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="37" t="str">
+      <c r="B37" s="51" t="str">
         <f>B14</f>
         <v>Six Lac Taka Only.</v>
       </c>
-      <c r="C37" s="38"/>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1523,19 +1515,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="41"/>
+      <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1561,12 +1553,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1575,6 +1561,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/Symphony/Others/Cash A.xlsx
+++ b/Symphony/Others/Cash A.xlsx
@@ -498,26 +498,38 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,40 +540,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,11 +1164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1176,21 +1176,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44546</v>
+        <v>44553</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1208,11 +1208,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>319000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,11 +1220,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>418</v>
+        <v>700</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>209000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,23 +1242,21 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>68000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="4">
-        <v>76</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>3800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,11 +1264,11 @@
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,10 +1282,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
         <v>600000</v>
@@ -1297,10 +1295,10 @@
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1317,19 +1315,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1360,11 +1358,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1372,21 +1370,21 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44546</v>
+        <v>44553</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1404,11 +1402,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>319000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1416,11 +1414,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>418</v>
+        <v>700</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>209000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1438,23 +1436,21 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>68000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>50</v>
       </c>
-      <c r="B33" s="4">
-        <v>76</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>3800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1462,11 +1458,11 @@
         <v>20</v>
       </c>
       <c r="B34" s="4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1480,10 +1476,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
         <v>600000</v>
@@ -1494,11 +1490,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="51" t="str">
+      <c r="B37" s="37" t="str">
         <f>B14</f>
         <v>Six Lac Taka Only.</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1515,19 +1511,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="55"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="55"/>
+      <c r="C42" s="41"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1553,6 +1549,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1561,12 +1563,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
